--- a/申根签证/实际旅游行程.xlsx
+++ b/申根签证/实际旅游行程.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="62">
   <si>
     <t>SUM</t>
   </si>
@@ -68,6 +68,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="华文楷体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>R</t>
@@ -77,15 +78,13 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="华文楷体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>oma</t>
     </r>
   </si>
   <si>
-    <t>CA939</t>
-  </si>
-  <si>
     <t>ON Air</t>
   </si>
   <si>
@@ -113,15 +112,6 @@
     <t>Tirano(Tirano)</t>
   </si>
   <si>
-    <t>RE_8</t>
-  </si>
-  <si>
-    <t>大早上</t>
-  </si>
-  <si>
-    <t>2.5H</t>
-  </si>
-  <si>
     <t>3days</t>
   </si>
   <si>
@@ -131,19 +121,7 @@
     <t>St.Moritz(St.Moritz)</t>
   </si>
   <si>
-    <t>BEX</t>
-  </si>
-  <si>
-    <t>接上</t>
-  </si>
-  <si>
-    <t>http://www.sbb.ch/en/home.html</t>
-  </si>
-  <si>
     <t>St.Moritz</t>
-  </si>
-  <si>
-    <t>比较住宿价格</t>
   </si>
   <si>
     <r>
@@ -151,6 +129,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="华文楷体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Z</t>
@@ -160,6 +139,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="华文楷体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ermatt</t>
@@ -178,60 +158,120 @@
     <t>Via visp,</t>
   </si>
   <si>
-    <t>下午观光</t>
-  </si>
-  <si>
-    <t>1H</t>
-  </si>
-  <si>
     <t>Zurich HB</t>
   </si>
   <si>
-    <t>下午离开</t>
-  </si>
-  <si>
     <t>2H46M</t>
   </si>
   <si>
+    <t>3H36M</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Munich</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>1H50M</t>
+  </si>
+  <si>
+    <t>www.bahn.de</t>
+  </si>
+  <si>
+    <t>Frankfurt</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Geneva</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
     <t>Innsbruck Hbf</t>
-  </si>
-  <si>
-    <t>下午到</t>
-  </si>
-  <si>
-    <t>3H36M</t>
-  </si>
-  <si>
-    <t>Germany</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>InterCity 727
+Direction: St. Gallen</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Railjet 363
+Direction: Innsbruck Hbf</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>3H50M</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHF96</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>St.Moritz</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Munich</t>
-  </si>
-  <si>
-    <t>EC</t>
-  </si>
-  <si>
-    <t>1H50M</t>
-  </si>
-  <si>
-    <t>www.bahn.de</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>Frankfurt</t>
-  </si>
-  <si>
-    <t>End</t>
-  </si>
-  <si>
-    <t/>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRECCIAROSSA 1000  9622</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>2H32M</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regionale  2554</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regio 1644,platf.3</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHF 31.00</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Euro.23</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宿价格</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHF149+33</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHF43.5</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="[$-409]d/mmm;@"/>
+    <numFmt numFmtId="181" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -245,6 +285,7 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="华文楷体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -252,19 +293,14 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="华文楷体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="华文楷体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="华文楷体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -272,24 +308,28 @@
       <sz val="11"/>
       <color indexed="48"/>
       <name val="华文楷体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="华文楷体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="华文楷体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="60"/>
       <name val="华文楷体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -297,12 +337,14 @@
       <sz val="18"/>
       <color indexed="63"/>
       <name val="华文楷体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="华文楷体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -310,6 +352,7 @@
       <sz val="11"/>
       <color indexed="63"/>
       <name val="华文楷体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -317,24 +360,28 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="华文楷体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="华文楷体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="62"/>
       <name val="华文楷体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="华文楷体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -342,6 +389,7 @@
       <sz val="11"/>
       <color indexed="63"/>
       <name val="华文楷体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -349,6 +397,7 @@
       <sz val="11"/>
       <color indexed="23"/>
       <name val="华文楷体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -356,6 +405,7 @@
       <sz val="13"/>
       <color indexed="63"/>
       <name val="华文楷体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -363,6 +413,7 @@
       <sz val="11"/>
       <color indexed="52"/>
       <name val="华文楷体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -370,6 +421,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="华文楷体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -377,10 +429,18 @@
       <sz val="15"/>
       <color indexed="63"/>
       <name val="华文楷体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
+      <name val="华文楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
       <name val="华文楷体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -622,134 +682,134 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -813,13 +873,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="19" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="19" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -830,6 +884,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1224,8 +1290,8 @@
   </sheetPr>
   <dimension ref="B2:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1294,55 +1360,55 @@
       <c r="F3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>15</v>
-      </c>
+      <c r="G3" s="26"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="D4" s="7">
         <v>42639</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="15"/>
+        <v>18</v>
+      </c>
+      <c r="G4" s="27"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="2:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B5" s="25"/>
+    <row r="5" spans="2:12" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="23"/>
       <c r="C5" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="7">
         <v>42640</v>
       </c>
       <c r="E5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="15"/>
+      <c r="G5" s="27" t="s">
+        <v>53</v>
+      </c>
       <c r="H5" s="16">
         <v>0.45833333333333298</v>
       </c>
@@ -1350,107 +1416,113 @@
         <v>0.57986111111111105</v>
       </c>
       <c r="J5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="25"/>
+      <c r="L5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="15"/>
     </row>
     <row r="6" spans="2:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B6" s="25"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7">
         <v>42641</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+        <v>19</v>
+      </c>
+      <c r="G6" s="27"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
       <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
+      <c r="K6" s="25"/>
       <c r="L6" s="15"/>
     </row>
     <row r="7" spans="2:12" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="25"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="7">
         <v>42641</v>
       </c>
       <c r="E7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="15"/>
+      <c r="G7" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="I7" s="16">
+        <v>0.45277777777777778</v>
+      </c>
       <c r="J7" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="15"/>
+        <v>54</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>58</v>
+      </c>
       <c r="L7" s="15"/>
     </row>
     <row r="8" spans="2:12" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="B8" s="26" t="s">
-        <v>28</v>
+      <c r="B8" s="24" t="s">
+        <v>24</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D8" s="7">
         <v>42641</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="18"/>
+        <v>26</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="19">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="I8" s="19">
+        <v>0.5493055555555556</v>
+      </c>
       <c r="J8" s="18"/>
-      <c r="K8" s="22" t="s">
-        <v>33</v>
+      <c r="K8" s="18" t="s">
+        <v>57</v>
       </c>
       <c r="L8" s="18"/>
     </row>
-    <row r="9" spans="2:12" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="26"/>
+    <row r="9" spans="2:12" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="24"/>
       <c r="C9" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D9" s="9">
         <v>42642</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="18"/>
+        <v>27</v>
+      </c>
+      <c r="G9" s="28"/>
       <c r="H9" s="18" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
@@ -1458,21 +1530,21 @@
       <c r="L9" s="18"/>
     </row>
     <row r="10" spans="2:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B10" s="26"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D10" s="9">
         <v>42643</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>37</v>
+        <v>28</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>29</v>
       </c>
       <c r="H10" s="19">
         <v>0.37291666666666701</v>
@@ -1481,132 +1553,148 @@
         <v>0.71527777777777801</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" s="18"/>
+        <v>30</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>60</v>
+      </c>
       <c r="L10" s="18"/>
     </row>
-    <row r="11" spans="2:12" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="B11" s="26"/>
+    <row r="11" spans="2:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B11" s="24"/>
       <c r="C11" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D11" s="9">
         <v>42644</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="18"/>
+        <v>31</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="19">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="I11" s="19">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="J11" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" s="18"/>
+        <v>48</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>49</v>
+      </c>
       <c r="L11" s="18"/>
     </row>
-    <row r="12" spans="2:12" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="B12" s="26"/>
+    <row r="12" spans="2:12" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B12" s="24"/>
       <c r="C12" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D12" s="9">
         <v>42645</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" s="18"/>
+        <v>33</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="19">
+        <v>0.65416666666666667</v>
+      </c>
+      <c r="I12" s="19">
+        <v>0.76944444444444438</v>
+      </c>
       <c r="J12" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K12" s="18"/>
+        <v>34</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="L12" s="18"/>
     </row>
     <row r="13" spans="2:12" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="B13" s="26"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D13" s="9">
         <v>42645</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="I13" s="18"/>
+      <c r="H13" s="19">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="I13" s="19">
+        <v>0.9277777777777777</v>
+      </c>
       <c r="J13" s="18" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
     </row>
     <row r="14" spans="2:12" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="B14" s="25" t="s">
-        <v>17</v>
+      <c r="B14" s="23" t="s">
+        <v>16</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D14" s="9">
         <v>42645</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="15" t="s">
         <v>51</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>38</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="K14" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="L14" s="15"/>
+        <v>39</v>
+      </c>
+      <c r="K14" s="21"/>
+      <c r="L14" s="15" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="15" spans="2:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B15" s="25"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D15" s="7">
         <v>42646</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="15"/>
+        <v>37</v>
+      </c>
+      <c r="G15" s="27"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
@@ -1614,20 +1702,20 @@
       <c r="L15" s="15"/>
     </row>
     <row r="16" spans="2:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B16" s="25"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D16" s="7">
         <v>42647</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="15"/>
+        <v>52</v>
+      </c>
+      <c r="G16" s="27"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
@@ -1635,20 +1723,20 @@
       <c r="L16" s="15"/>
     </row>
     <row r="17" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B17" s="25"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D17" s="7">
         <v>42647</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="15"/>
+        <v>41</v>
+      </c>
+      <c r="G17" s="27"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
@@ -1656,31 +1744,31 @@
       <c r="L17" s="15"/>
     </row>
     <row r="18" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B18" s="25"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D18" s="7">
         <v>42648</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="15"/>
+      <c r="G18" s="27"/>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
       <c r="L18" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>12</v>
@@ -1692,8 +1780,8 @@
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
       <c r="M19" s="1" t="str">
         <f t="shared" ref="M19" si="0">PROPER(E20)</f>
         <v/>
@@ -1705,7 +1793,7 @@
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E20" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1714,14 +1802,9 @@
     <mergeCell ref="B8:B13"/>
     <mergeCell ref="B14:B18"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="K8" r:id="rId1"/>
-    <hyperlink ref="K5" r:id="rId2"/>
-    <hyperlink ref="K14" r:id="rId3"/>
-  </hyperlinks>
+  <phoneticPr fontId="21" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.235416666666667" right="0.235416666666667" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
-  <pageSetup paperSize="9" scale="89" fitToHeight="0" orientation="landscape" r:id="rId4"/>
+  <pageSetup paperSize="9" scale="89" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>